--- a/FolderExcelFiles/I - SUBCRIBER/3. Transactions/transfer/transfer to wallet/2.1 Transfer - To - Wallet - Fail 2.xlsx
+++ b/FolderExcelFiles/I - SUBCRIBER/3. Transactions/transfer/transfer to wallet/2.1 Transfer - To - Wallet - Fail 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\AYA Subscriber App\FolderExcelFiles\I - SUBCRIBER\3. Transactions\transfer\transfer to wallet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6770423D-7E21-45A8-A700-1E172430665A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A0DFFE-3E9A-48AC-BF5D-1E7FA752FE5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1432A72A-0386-441C-9E35-C35EB92B75C6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
   <si>
     <t>phone</t>
   </si>
@@ -139,13 +139,16 @@
   </si>
   <si>
     <t>Wrong Currency format</t>
+  </si>
+  <si>
+    <t>Receiver need to be another account</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,8 +181,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +199,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -201,11 +216,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -214,8 +230,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -529,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4BE065-FC04-4F51-9602-B7E638619A1A}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,6 +954,61 @@
         <v>28</v>
       </c>
     </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="8" t="str">
+        <f>A8</f>
+        <v>09406569642</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" ref="N8" si="1">B8</f>
+        <v>000000</v>
+      </c>
+      <c r="O8">
+        <v>1234</v>
+      </c>
+      <c r="P8">
+        <v>9081</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
